--- a/biology/Zoologie/Chironius_monticola/Chironius_monticola.xlsx
+++ b/biology/Zoologie/Chironius_monticola/Chironius_monticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius monticola  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius monticola  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre :
 en Bolivie, dans les départements de Cochabamba et Santa Cruz ;
 en Colombie ;
 en Équateur ;
 au Pérou ;
-au Venezuela, dans les États de Mérida et de Táchira[1].</t>
+au Venezuela, dans les États de Mérida et de Táchira.</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce vient du latin monticola, « qui habite les montagnes »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce vient du latin monticola, « qui habite les montagnes ».
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Roze, 1952 : Colección de reptiles del Profesor Scorza, de Venezuela. Acta Biologica Venezuelica, vol. 1, n. 5, p. 93-114.</t>
         </is>
